--- a/SauceDemo/TestCases/TestCases.xlsx
+++ b/SauceDemo/TestCases/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leand\Documents\GitHub\QA-Portolio\SauceDemo\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F5CE8DD2-6885-4411-88D5-6E4E1AEBD5CD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01D8AE5-560D-4C0A-92AD-98A3E0DDD087}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" xr2:uid="{8E7EE339-AB8B-4702-91B9-B13B56838384}"/>
   </bookViews>
@@ -567,6 +567,107 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Abadi"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Abadi"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Abadi"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Abadi"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Abadi"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Abadi"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Abadi"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -586,107 +687,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Abadi"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Abadi"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Abadi"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Abadi"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Abadi"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Abadi"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Abadi"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -702,15 +702,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D9346E28-65BB-446D-9B6A-3625161220AF}" name="Tabela3" displayName="Tabela3" ref="A1:J1048576" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D9346E28-65BB-446D-9B6A-3625161220AF}" name="Tabela3" displayName="Tabela3" ref="A1:J1048576" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{348E1F4E-D390-4EC0-88CE-1121C4D998D0}" name="Test Case ID" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{7FA39B1C-2E93-4F46-B0A0-01E005234B19}" name="Scenario ID" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{6F54A58A-17A8-4090-88EC-F21F04446AB7}" name="Test Case Description" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{A2B305D7-EB9C-463B-842E-79183F7E246A}" name="Preconditions" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{69FC8E49-6A0C-4DDF-B9DA-C9C4025707F7}" name="Test Steps" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{F8A64F65-E9C0-4F38-86AF-45CDD36C983D}" name="Expected Result" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{6F46F724-A683-4F9B-901D-910CA4BE2CE0}" name="Priority" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{348E1F4E-D390-4EC0-88CE-1121C4D998D0}" name="Test Case ID" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{7FA39B1C-2E93-4F46-B0A0-01E005234B19}" name="Scenario ID" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{6F54A58A-17A8-4090-88EC-F21F04446AB7}" name="Test Case Description" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{A2B305D7-EB9C-463B-842E-79183F7E246A}" name="Preconditions" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{69FC8E49-6A0C-4DDF-B9DA-C9C4025707F7}" name="Test Steps" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{F8A64F65-E9C0-4F38-86AF-45CDD36C983D}" name="Expected Result" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{6F46F724-A683-4F9B-901D-910CA4BE2CE0}" name="Priority" dataDxfId="3"/>
     <tableColumn id="8" xr3:uid="{49DF17AB-ED5A-4B04-ADF8-BF1D10B5C943}" name="Status" dataDxfId="2"/>
     <tableColumn id="9" xr3:uid="{3985CF40-7148-4C49-A6EB-84E5B562092E}" name="Bug Traceability" dataDxfId="1"/>
     <tableColumn id="10" xr3:uid="{B95E27A1-9CD6-4E25-B027-EA57C88AEB32}" name="Notes" dataDxfId="0"/>
@@ -1018,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89342E22-F6FF-40EA-83DE-092533556088}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SauceDemo/TestCases/TestCases.xlsx
+++ b/SauceDemo/TestCases/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leand\Documents\GitHub\QA-Portolio\SauceDemo\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01D8AE5-560D-4C0A-92AD-98A3E0DDD087}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{089A9021-6554-4B31-BE18-AA6FE408491C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" xr2:uid="{8E7EE339-AB8B-4702-91B9-B13B56838384}"/>
   </bookViews>
@@ -1018,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89342E22-F6FF-40EA-83DE-092533556088}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1366,7 +1366,7 @@
         <v>36</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
